--- a/data/pca/factorExposure/factorExposure_2010-04-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-08.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01396981185620093</v>
+        <v>-0.01706610439630284</v>
       </c>
       <c r="C2">
-        <v>0.007298299577323333</v>
+        <v>-0.0009686975698851366</v>
       </c>
       <c r="D2">
-        <v>-0.0114669076925752</v>
+        <v>-0.008555893245061643</v>
       </c>
       <c r="E2">
-        <v>0.01080758836107752</v>
+        <v>-0.0001074964086961037</v>
       </c>
       <c r="F2">
-        <v>0.01445930624673251</v>
+        <v>-0.01042046031797001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1200376925982106</v>
+        <v>-0.09307977113250572</v>
       </c>
       <c r="C4">
-        <v>-0.07533446138307437</v>
+        <v>-0.01616517532213005</v>
       </c>
       <c r="D4">
-        <v>-0.01092610338077656</v>
+        <v>-0.08454602053154843</v>
       </c>
       <c r="E4">
-        <v>-0.008474167319988001</v>
+        <v>0.03077044841253169</v>
       </c>
       <c r="F4">
-        <v>-0.0003438721438724085</v>
+        <v>0.03153935682035804</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1208373688752341</v>
+        <v>-0.1540839911860609</v>
       </c>
       <c r="C6">
-        <v>0.0001952031783432724</v>
+        <v>-0.02455710129015863</v>
       </c>
       <c r="D6">
-        <v>-0.01757740269849534</v>
+        <v>0.02195213185392857</v>
       </c>
       <c r="E6">
-        <v>0.03208025903313508</v>
+        <v>0.008984191370743929</v>
       </c>
       <c r="F6">
-        <v>-0.05225853658816539</v>
+        <v>0.04681560906237931</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06956133128965697</v>
+        <v>-0.05930757616144598</v>
       </c>
       <c r="C7">
-        <v>-0.06028043061568063</v>
+        <v>0.0007871869476798819</v>
       </c>
       <c r="D7">
-        <v>-0.04389351703070346</v>
+        <v>-0.05209268496701278</v>
       </c>
       <c r="E7">
-        <v>0.02423909331773459</v>
+        <v>0.01497984151804483</v>
       </c>
       <c r="F7">
-        <v>0.03147830645779323</v>
+        <v>0.05087894917572898</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05438570516325526</v>
+        <v>-0.05815103595695092</v>
       </c>
       <c r="C8">
-        <v>-0.03243882314256426</v>
+        <v>0.01317528727284015</v>
       </c>
       <c r="D8">
-        <v>-0.02746438419537504</v>
+        <v>-0.03217500466774423</v>
       </c>
       <c r="E8">
-        <v>-0.007538691276603848</v>
+        <v>0.01551516786898288</v>
       </c>
       <c r="F8">
-        <v>-0.02017232021842107</v>
+        <v>-0.02916126157774708</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08338995699927139</v>
+        <v>-0.07090224281549119</v>
       </c>
       <c r="C9">
-        <v>-0.05741147166648508</v>
+        <v>-0.01218521240205347</v>
       </c>
       <c r="D9">
-        <v>-0.01526339393070923</v>
+        <v>-0.08384742051683421</v>
       </c>
       <c r="E9">
-        <v>-0.01708785597309528</v>
+        <v>0.02508746685018813</v>
       </c>
       <c r="F9">
-        <v>0.006156051999549589</v>
+        <v>0.05372014609668246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.107881685877222</v>
+        <v>-0.09514453522589718</v>
       </c>
       <c r="C10">
-        <v>0.1744123170794568</v>
+        <v>-0.01782651502581365</v>
       </c>
       <c r="D10">
-        <v>0.01444908821444486</v>
+        <v>0.1716487630989617</v>
       </c>
       <c r="E10">
-        <v>0.009174889470606332</v>
+        <v>-0.03988751186160382</v>
       </c>
       <c r="F10">
-        <v>0.04123297889699853</v>
+        <v>-0.05348130673136118</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07725427645555878</v>
+        <v>-0.0873756290675346</v>
       </c>
       <c r="C11">
-        <v>-0.05514354330407174</v>
+        <v>-0.01155734357680961</v>
       </c>
       <c r="D11">
-        <v>-0.03539609244508317</v>
+        <v>-0.1144774805328055</v>
       </c>
       <c r="E11">
-        <v>-0.01896933410255275</v>
+        <v>0.04951219372487583</v>
       </c>
       <c r="F11">
-        <v>-0.01223066037326241</v>
+        <v>0.01990304017849703</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07898996570650196</v>
+        <v>-0.09187535336949935</v>
       </c>
       <c r="C12">
-        <v>-0.07799549736987584</v>
+        <v>-0.00918386005900116</v>
       </c>
       <c r="D12">
-        <v>-0.0463244245067899</v>
+        <v>-0.1230990379328648</v>
       </c>
       <c r="E12">
-        <v>-0.06355998198837283</v>
+        <v>0.04847562086448363</v>
       </c>
       <c r="F12">
-        <v>0.01901535299296433</v>
+        <v>0.02013373704808037</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03055129560160303</v>
+        <v>-0.04286069796359614</v>
       </c>
       <c r="C13">
-        <v>-0.03047664179104232</v>
+        <v>-0.003745211441258781</v>
       </c>
       <c r="D13">
-        <v>-0.004637519998849809</v>
+        <v>-0.04710593157670404</v>
       </c>
       <c r="E13">
-        <v>0.01980431573515881</v>
+        <v>-0.01111471511696424</v>
       </c>
       <c r="F13">
-        <v>0.01719939568620119</v>
+        <v>0.0129931463063778</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03969407019343912</v>
+        <v>-0.022311922213911</v>
       </c>
       <c r="C14">
-        <v>-0.0262292886069566</v>
+        <v>-0.01428041928028421</v>
       </c>
       <c r="D14">
-        <v>0.002260621183952985</v>
+        <v>-0.03140972082596103</v>
       </c>
       <c r="E14">
-        <v>-0.02236868867444689</v>
+        <v>0.01883465369100566</v>
       </c>
       <c r="F14">
-        <v>0.001948167801536491</v>
+        <v>0.01829411093384865</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01597854942847316</v>
+        <v>-0.03147598863093005</v>
       </c>
       <c r="C15">
-        <v>-0.006880656013240029</v>
+        <v>-0.00545112387677791</v>
       </c>
       <c r="D15">
-        <v>-0.008414016397157921</v>
+        <v>-0.04500230733580413</v>
       </c>
       <c r="E15">
-        <v>0.04373215786185435</v>
+        <v>0.00892875706915011</v>
       </c>
       <c r="F15">
-        <v>0.01916785425605314</v>
+        <v>0.03025314578897276</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08514103444047333</v>
+        <v>-0.07327889150323273</v>
       </c>
       <c r="C16">
-        <v>-0.06364930857647291</v>
+        <v>-0.00304943621011606</v>
       </c>
       <c r="D16">
-        <v>-0.0466856050991007</v>
+        <v>-0.1174232485251105</v>
       </c>
       <c r="E16">
-        <v>-0.04029054898684657</v>
+        <v>0.06373109680181009</v>
       </c>
       <c r="F16">
-        <v>-0.005465635786302878</v>
+        <v>0.02875107148100792</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02355650662386856</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.0034436080717491</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01840187713297015</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.008861653608515764</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.01603090324560079</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0489919373063103</v>
+        <v>-0.06074139297795342</v>
       </c>
       <c r="C20">
-        <v>-0.03490960294939081</v>
+        <v>-0.0007417963535199512</v>
       </c>
       <c r="D20">
-        <v>0.01063908585179887</v>
+        <v>-0.07588417061857174</v>
       </c>
       <c r="E20">
-        <v>0.02706279600059971</v>
+        <v>0.05559271773115411</v>
       </c>
       <c r="F20">
-        <v>0.01119162194438931</v>
+        <v>0.02870762768154839</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02920198865634573</v>
+        <v>-0.03875428455525045</v>
       </c>
       <c r="C21">
-        <v>-0.01298554807066822</v>
+        <v>-0.006888651788582422</v>
       </c>
       <c r="D21">
-        <v>0.01961485775301759</v>
+        <v>-0.03715255830956859</v>
       </c>
       <c r="E21">
-        <v>-0.01494916252387904</v>
+        <v>-0.00766227767812636</v>
       </c>
       <c r="F21">
-        <v>-0.0171881757122167</v>
+        <v>-0.02038118115357935</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02899713516353319</v>
+        <v>-0.04260631523191103</v>
       </c>
       <c r="C22">
-        <v>0.02199761810913942</v>
+        <v>-0.0004522614664241213</v>
       </c>
       <c r="D22">
-        <v>-0.03979884853653297</v>
+        <v>-0.001661643268956479</v>
       </c>
       <c r="E22">
-        <v>0.6063643103999042</v>
+        <v>0.0296147486489536</v>
       </c>
       <c r="F22">
-        <v>0.1735724321921893</v>
+        <v>-0.008914722900517475</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02923071106813836</v>
+        <v>-0.04266028795195645</v>
       </c>
       <c r="C23">
-        <v>0.02145542525502454</v>
+        <v>-0.0004745224386324491</v>
       </c>
       <c r="D23">
-        <v>-0.04115868644480021</v>
+        <v>-0.001789416316388278</v>
       </c>
       <c r="E23">
-        <v>0.6097604942544951</v>
+        <v>0.02997478647272036</v>
       </c>
       <c r="F23">
-        <v>0.1724673810485435</v>
+        <v>-0.008463144751392969</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08497656643870573</v>
+        <v>-0.07968380376744698</v>
       </c>
       <c r="C24">
-        <v>-0.06416886496764007</v>
+        <v>-0.003248078112254498</v>
       </c>
       <c r="D24">
-        <v>-0.02914528315007197</v>
+        <v>-0.1185467209621765</v>
       </c>
       <c r="E24">
-        <v>-0.03344882495838566</v>
+        <v>0.05150563213453268</v>
       </c>
       <c r="F24">
-        <v>0.0002548315444926281</v>
+        <v>0.02164633646504869</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09059876318037324</v>
+        <v>-0.08457101520865788</v>
       </c>
       <c r="C25">
-        <v>-0.0611311691605275</v>
+        <v>-0.005395304865276314</v>
       </c>
       <c r="D25">
-        <v>-0.04259701870578263</v>
+        <v>-0.1065356113859466</v>
       </c>
       <c r="E25">
-        <v>-0.06514858141933001</v>
+        <v>0.03462179146238011</v>
       </c>
       <c r="F25">
-        <v>0.01544335689304457</v>
+        <v>0.02902273861482245</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0415775265793486</v>
+        <v>-0.05447759357680498</v>
       </c>
       <c r="C26">
-        <v>0.004235613800228372</v>
+        <v>-0.01487387143551936</v>
       </c>
       <c r="D26">
-        <v>0.01668529665633026</v>
+        <v>-0.03806605802489915</v>
       </c>
       <c r="E26">
-        <v>0.01278375053836741</v>
+        <v>0.02787874132343723</v>
       </c>
       <c r="F26">
-        <v>-0.01648696229347921</v>
+        <v>-0.01247500282181029</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1192980286902277</v>
+        <v>-0.143634803527057</v>
       </c>
       <c r="C28">
-        <v>0.3175782666564138</v>
+        <v>-0.01608767105254508</v>
       </c>
       <c r="D28">
-        <v>-0.005958870911430104</v>
+        <v>0.2658321284124364</v>
       </c>
       <c r="E28">
-        <v>-0.03141330145949816</v>
+        <v>-0.0693322577876586</v>
       </c>
       <c r="F28">
-        <v>-0.01256324846118675</v>
+        <v>0.02869379843179129</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03387461127541202</v>
+        <v>-0.02718378346021641</v>
       </c>
       <c r="C29">
-        <v>-0.01971039102655181</v>
+        <v>-0.008692422702316557</v>
       </c>
       <c r="D29">
-        <v>-0.009842534712169618</v>
+        <v>-0.02981568980833711</v>
       </c>
       <c r="E29">
-        <v>-0.03703527717866091</v>
+        <v>0.01172667227333301</v>
       </c>
       <c r="F29">
-        <v>0.03721561699128761</v>
+        <v>-0.01336808467766667</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1043157025366144</v>
+        <v>-0.06254500553521278</v>
       </c>
       <c r="C30">
-        <v>-0.09387327912193238</v>
+        <v>-0.004465514308677907</v>
       </c>
       <c r="D30">
-        <v>-0.0551043367913571</v>
+        <v>-0.08656310281896466</v>
       </c>
       <c r="E30">
-        <v>-0.04501326280231544</v>
+        <v>0.02505179064293836</v>
       </c>
       <c r="F30">
-        <v>-0.04374543452971082</v>
+        <v>0.1044783918843475</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03050440413615297</v>
+        <v>-0.04825632946006747</v>
       </c>
       <c r="C31">
-        <v>-0.03403511952707175</v>
+        <v>-0.01495137238722339</v>
       </c>
       <c r="D31">
-        <v>-0.002008075764744246</v>
+        <v>-0.02817984244894501</v>
       </c>
       <c r="E31">
-        <v>0.001966883345359001</v>
+        <v>0.02719560961768713</v>
       </c>
       <c r="F31">
-        <v>0.005623080264528988</v>
+        <v>-0.00470540420397191</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.059019262166598</v>
+        <v>-0.04810455552469901</v>
       </c>
       <c r="C32">
-        <v>-0.01370103184585812</v>
+        <v>0.0001713819832184567</v>
       </c>
       <c r="D32">
-        <v>0.01391910251442522</v>
+        <v>-0.03018858586171245</v>
       </c>
       <c r="E32">
-        <v>-0.0664164368195489</v>
+        <v>0.02996143471720794</v>
       </c>
       <c r="F32">
-        <v>-0.07632113586953146</v>
+        <v>0.001719529182276915</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09265124311030873</v>
+        <v>-0.08986127254096489</v>
       </c>
       <c r="C33">
-        <v>-0.06402527570301884</v>
+        <v>-0.008709777554688271</v>
       </c>
       <c r="D33">
-        <v>-0.08189228536877878</v>
+        <v>-0.09443728906145626</v>
       </c>
       <c r="E33">
-        <v>-0.02436024107255215</v>
+        <v>0.04721440637753946</v>
       </c>
       <c r="F33">
-        <v>0.009296818177356087</v>
+        <v>0.04059184989898168</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07271018187095633</v>
+        <v>-0.06733833800827163</v>
       </c>
       <c r="C34">
-        <v>-0.05778409136143086</v>
+        <v>-0.01179576158524851</v>
       </c>
       <c r="D34">
-        <v>-0.03143794665687431</v>
+        <v>-0.09873462122200639</v>
       </c>
       <c r="E34">
-        <v>-0.03695752947238674</v>
+        <v>0.03600555573323284</v>
       </c>
       <c r="F34">
-        <v>0.005497139682730991</v>
+        <v>0.0391070806474581</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01064614822413028</v>
+        <v>-0.02431119511507106</v>
       </c>
       <c r="C35">
-        <v>-0.01811091101887101</v>
+        <v>-0.002439329346503369</v>
       </c>
       <c r="D35">
-        <v>-0.005156430868165458</v>
+        <v>-0.01186559842762887</v>
       </c>
       <c r="E35">
-        <v>-0.0008244329261455585</v>
+        <v>0.01130970372904186</v>
       </c>
       <c r="F35">
-        <v>0.01677392667593044</v>
+        <v>0.008918392517544284</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02712188234906149</v>
+        <v>-0.02437863396813496</v>
       </c>
       <c r="C36">
-        <v>-0.01512663904167324</v>
+        <v>-0.007218904637825314</v>
       </c>
       <c r="D36">
-        <v>-0.00810257585096901</v>
+        <v>-0.03704158007903774</v>
       </c>
       <c r="E36">
-        <v>0.008034737015501843</v>
+        <v>0.01817873379150663</v>
       </c>
       <c r="F36">
-        <v>-0.00775851463446044</v>
+        <v>0.01312267248951517</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.008133371261996864</v>
+        <v>-0.00154625047633656</v>
       </c>
       <c r="C38">
-        <v>-0.01058765639457558</v>
+        <v>-0.0002383565886441842</v>
       </c>
       <c r="D38">
-        <v>-0.007821235511441593</v>
+        <v>-0.001153839298193463</v>
       </c>
       <c r="E38">
-        <v>0.01987417159015125</v>
+        <v>0.001404368976130925</v>
       </c>
       <c r="F38">
-        <v>0.03428398165840258</v>
+        <v>-0.001092745899569317</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1219168438353225</v>
+        <v>-0.1079251924510537</v>
       </c>
       <c r="C39">
-        <v>-0.1082846163310174</v>
+        <v>-0.01677058943323737</v>
       </c>
       <c r="D39">
-        <v>-0.07259286274282206</v>
+        <v>-0.1540862921242047</v>
       </c>
       <c r="E39">
-        <v>-0.1429744676566216</v>
+        <v>0.06188593209909643</v>
       </c>
       <c r="F39">
-        <v>0.0005894296344388924</v>
+        <v>0.02531144587309076</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.006234625717106619</v>
+        <v>-0.03715370597412773</v>
       </c>
       <c r="C40">
-        <v>-0.02634631242402632</v>
+        <v>-0.00728370177694828</v>
       </c>
       <c r="D40">
-        <v>0.01071664987885248</v>
+        <v>-0.03138128638513318</v>
       </c>
       <c r="E40">
-        <v>0.0683027577162317</v>
+        <v>0.003439895219605158</v>
       </c>
       <c r="F40">
-        <v>0.0390398428639146</v>
+        <v>-0.01362162507236713</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02611032120439287</v>
+        <v>-0.02631364959744824</v>
       </c>
       <c r="C41">
-        <v>-0.003054136844790406</v>
+        <v>-0.006576863455906456</v>
       </c>
       <c r="D41">
-        <v>0.002387070732963448</v>
+        <v>-0.01159571020861823</v>
       </c>
       <c r="E41">
-        <v>-0.00632610053126237</v>
+        <v>0.01265622151266623</v>
       </c>
       <c r="F41">
-        <v>0.008966541761830669</v>
+        <v>-0.00887874377441795</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03699526674610818</v>
+        <v>-0.04060961363177149</v>
       </c>
       <c r="C43">
-        <v>-0.00619165222355173</v>
+        <v>-0.006755404358360525</v>
       </c>
       <c r="D43">
-        <v>-0.01714903357916947</v>
+        <v>-0.02117710430272128</v>
       </c>
       <c r="E43">
-        <v>-0.00275336544306766</v>
+        <v>0.02483541698037378</v>
       </c>
       <c r="F43">
-        <v>-0.0009328430219926333</v>
+        <v>-0.01306334636923524</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1209185233053112</v>
+        <v>-0.07596644293195828</v>
       </c>
       <c r="C44">
-        <v>-0.1386410626192174</v>
+        <v>-0.02180782960107008</v>
       </c>
       <c r="D44">
-        <v>-0.07692795112572293</v>
+        <v>-0.09485660471021369</v>
       </c>
       <c r="E44">
-        <v>0.09687944200953923</v>
+        <v>0.07595561956040554</v>
       </c>
       <c r="F44">
-        <v>0.1078875165355743</v>
+        <v>0.1867922548380259</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0183110785220482</v>
+        <v>-0.02221980842917568</v>
       </c>
       <c r="C46">
-        <v>0.01554585991979135</v>
+        <v>-0.00380574958124331</v>
       </c>
       <c r="D46">
-        <v>-0.01764856161931948</v>
+        <v>-0.01174809490592738</v>
       </c>
       <c r="E46">
-        <v>0.02258912050588323</v>
+        <v>0.02381669297721395</v>
       </c>
       <c r="F46">
-        <v>0.03055675921972389</v>
+        <v>0.0002781696036152157</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03743334149216861</v>
+        <v>-0.05189897935508109</v>
       </c>
       <c r="C47">
-        <v>-0.02338151543963175</v>
+        <v>-0.00323552065790019</v>
       </c>
       <c r="D47">
-        <v>0.003368731588897311</v>
+        <v>-0.01315287046559203</v>
       </c>
       <c r="E47">
-        <v>-0.006828842967326268</v>
+        <v>0.02208306799455202</v>
       </c>
       <c r="F47">
-        <v>0.001789675035794381</v>
+        <v>-0.04487375506054506</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04377541266767074</v>
+        <v>-0.0475384391085703</v>
       </c>
       <c r="C48">
-        <v>-0.02242695958726424</v>
+        <v>-0.002746661281473424</v>
       </c>
       <c r="D48">
-        <v>-0.005785152825504061</v>
+        <v>-0.04848334923599957</v>
       </c>
       <c r="E48">
-        <v>-0.009381487763887629</v>
+        <v>-0.004209612225147365</v>
       </c>
       <c r="F48">
-        <v>0.01921382776387878</v>
+        <v>0.01005299233847025</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2262475749990028</v>
+        <v>-0.2026025296873495</v>
       </c>
       <c r="C49">
-        <v>0.006229155916930796</v>
+        <v>-0.01772272110964246</v>
       </c>
       <c r="D49">
-        <v>0.04847758721590279</v>
+        <v>0.01026097466984966</v>
       </c>
       <c r="E49">
-        <v>-0.02265708630492854</v>
+        <v>0.03265288101652326</v>
       </c>
       <c r="F49">
-        <v>0.03822237841881489</v>
+        <v>0.03134729846256696</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03863863200145293</v>
+        <v>-0.0481782067091203</v>
       </c>
       <c r="C50">
-        <v>-0.02853993566260651</v>
+        <v>-0.01105277015377406</v>
       </c>
       <c r="D50">
-        <v>0.00725127123027603</v>
+        <v>-0.02664979352931141</v>
       </c>
       <c r="E50">
-        <v>-0.01115344442639809</v>
+        <v>0.02973074999676379</v>
       </c>
       <c r="F50">
-        <v>0.004224486436708632</v>
+        <v>0.008785598678233669</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01200113188300251</v>
+        <v>-0.002222349393997237</v>
       </c>
       <c r="C51">
-        <v>0.01912089173265477</v>
+        <v>-0.0005816848136287635</v>
       </c>
       <c r="D51">
-        <v>-0.0141775413070826</v>
+        <v>0.00269835943867098</v>
       </c>
       <c r="E51">
-        <v>0.004359139549455719</v>
+        <v>-0.0004003459584168885</v>
       </c>
       <c r="F51">
-        <v>0.01072665560034539</v>
+        <v>0.004905013743254625</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1031316033616408</v>
+        <v>-0.1447520817467926</v>
       </c>
       <c r="C52">
-        <v>-0.07862902422175932</v>
+        <v>-0.01368691719024323</v>
       </c>
       <c r="D52">
-        <v>-0.0107749226087284</v>
+        <v>-0.0518323795602777</v>
       </c>
       <c r="E52">
-        <v>-0.01201895319574906</v>
+        <v>0.02414223544120787</v>
       </c>
       <c r="F52">
-        <v>0.01628880525268059</v>
+        <v>0.03312089788469778</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.161740072792612</v>
+        <v>-0.1741981769327045</v>
       </c>
       <c r="C53">
-        <v>-0.04132541526001647</v>
+        <v>-0.01649127257176754</v>
       </c>
       <c r="D53">
-        <v>-0.00592588666418971</v>
+        <v>-0.01186598814301796</v>
       </c>
       <c r="E53">
-        <v>0.01933636271524961</v>
+        <v>0.03567834082268602</v>
       </c>
       <c r="F53">
-        <v>0.03580720351803045</v>
+        <v>0.06550828465139526</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05097147086344226</v>
+        <v>-0.02142410843130139</v>
       </c>
       <c r="C54">
-        <v>-0.04428969680167472</v>
+        <v>-0.0123606795862342</v>
       </c>
       <c r="D54">
-        <v>-0.005571720933665886</v>
+        <v>-0.03320072691984993</v>
       </c>
       <c r="E54">
-        <v>0.02418702091239729</v>
+        <v>0.01614283824213623</v>
       </c>
       <c r="F54">
-        <v>0.01024010092009701</v>
+        <v>-0.005861526049705104</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08616995571188557</v>
+        <v>-0.1142637276392028</v>
       </c>
       <c r="C55">
-        <v>-0.03337307717703833</v>
+        <v>-0.01545206201412282</v>
       </c>
       <c r="D55">
-        <v>-0.06155632220924841</v>
+        <v>-0.01099618991726516</v>
       </c>
       <c r="E55">
-        <v>-0.02651274869454498</v>
+        <v>0.03024704788996291</v>
       </c>
       <c r="F55">
-        <v>0.02006394344485131</v>
+        <v>0.04442850649578228</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1568511132635083</v>
+        <v>-0.1779257784004498</v>
       </c>
       <c r="C56">
-        <v>-0.05727165737326593</v>
+        <v>-0.01397619425756038</v>
       </c>
       <c r="D56">
-        <v>-0.02307016626576184</v>
+        <v>-0.007570706143063805</v>
       </c>
       <c r="E56">
-        <v>-0.01230206154420051</v>
+        <v>0.0396439346817337</v>
       </c>
       <c r="F56">
-        <v>0.06100730083878898</v>
+        <v>0.04089375357050794</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04956483486419146</v>
+        <v>-0.04647231815050082</v>
       </c>
       <c r="C58">
-        <v>-0.02592383658600369</v>
+        <v>-0.001558725663534278</v>
       </c>
       <c r="D58">
-        <v>0.01326251756091416</v>
+        <v>-0.0663787771473586</v>
       </c>
       <c r="E58">
-        <v>0.05096315304930784</v>
+        <v>0.02414992515426784</v>
       </c>
       <c r="F58">
-        <v>0.02843482158687519</v>
+        <v>-0.04352745956485983</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1801768696492853</v>
+        <v>-0.1725605640814805</v>
       </c>
       <c r="C59">
-        <v>0.2507120153180051</v>
+        <v>-0.01702732540539412</v>
       </c>
       <c r="D59">
-        <v>-0.03091614740284428</v>
+        <v>0.2228691831941669</v>
       </c>
       <c r="E59">
-        <v>-0.04094683178148269</v>
+        <v>-0.04915376594015484</v>
       </c>
       <c r="F59">
-        <v>0.007381608597610477</v>
+        <v>-0.03299883465891151</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2632799762252103</v>
+        <v>-0.2361507612903785</v>
       </c>
       <c r="C60">
-        <v>-0.1712888432215945</v>
+        <v>0.004002627098496763</v>
       </c>
       <c r="D60">
-        <v>0.02250478731089104</v>
+        <v>-0.04821779064848788</v>
       </c>
       <c r="E60">
-        <v>-0.06385758540921521</v>
+        <v>0.007645797084520132</v>
       </c>
       <c r="F60">
-        <v>0.1741899430467976</v>
+        <v>-0.03125165148172437</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1101715475496581</v>
+        <v>-0.08289349495577633</v>
       </c>
       <c r="C61">
-        <v>-0.06213601068342114</v>
+        <v>-0.01299746515379882</v>
       </c>
       <c r="D61">
-        <v>-0.05610912921937979</v>
+        <v>-0.1140006062153998</v>
       </c>
       <c r="E61">
-        <v>-0.0854375540506065</v>
+        <v>0.04267597234034325</v>
       </c>
       <c r="F61">
-        <v>0.02679801247947537</v>
+        <v>0.01332009284127575</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1566185242606424</v>
+        <v>-0.1703341064674415</v>
       </c>
       <c r="C62">
-        <v>-0.04884751316327601</v>
+        <v>-0.01778175118193415</v>
       </c>
       <c r="D62">
-        <v>-0.02495664241424706</v>
+        <v>-0.01177686804769822</v>
       </c>
       <c r="E62">
-        <v>0.003696235425990813</v>
+        <v>0.03681181681643601</v>
       </c>
       <c r="F62">
-        <v>0.05401505949785991</v>
+        <v>0.02223489088482298</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03857890789606024</v>
+        <v>-0.04236143640182721</v>
       </c>
       <c r="C63">
-        <v>0.003813999323664302</v>
+        <v>-0.002998319481479029</v>
       </c>
       <c r="D63">
-        <v>-0.006288680039507507</v>
+        <v>-0.05179171056919384</v>
       </c>
       <c r="E63">
-        <v>-0.002591276144213465</v>
+        <v>0.02272761472767389</v>
       </c>
       <c r="F63">
-        <v>-0.04287450875829178</v>
+        <v>0.005438872487169097</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09514201130773423</v>
+        <v>-0.1118728470773176</v>
       </c>
       <c r="C64">
-        <v>-0.02556273887544866</v>
+        <v>-0.01118488584938365</v>
       </c>
       <c r="D64">
-        <v>-0.006300080256817728</v>
+        <v>-0.04347813628381025</v>
       </c>
       <c r="E64">
-        <v>-0.006626553330824992</v>
+        <v>0.02097950171015147</v>
       </c>
       <c r="F64">
-        <v>0.0665709810337662</v>
+        <v>0.02498763685688189</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1114492399365709</v>
+        <v>-0.1455111017701571</v>
       </c>
       <c r="C65">
-        <v>0.005853696184481755</v>
+        <v>-0.03122034322167153</v>
       </c>
       <c r="D65">
-        <v>-0.01136718021338454</v>
+        <v>0.04383514483647545</v>
       </c>
       <c r="E65">
-        <v>-0.004877165780860944</v>
+        <v>-0.0006292154044662918</v>
       </c>
       <c r="F65">
-        <v>-0.05650286940923738</v>
+        <v>0.04820364675926232</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1373274974788408</v>
+        <v>-0.1290986683311166</v>
       </c>
       <c r="C66">
-        <v>-0.1163893132445373</v>
+        <v>-0.01459297310188947</v>
       </c>
       <c r="D66">
-        <v>-0.07458491161654673</v>
+        <v>-0.1421795099975214</v>
       </c>
       <c r="E66">
-        <v>-0.115188102323295</v>
+        <v>0.06881093592926632</v>
       </c>
       <c r="F66">
-        <v>0.01572992388232891</v>
+        <v>0.03050618863842431</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06506912937460557</v>
+        <v>-0.06210851554224239</v>
       </c>
       <c r="C67">
-        <v>-0.04345279186485256</v>
+        <v>-0.00324496472222536</v>
       </c>
       <c r="D67">
-        <v>-0.08701627174443359</v>
+        <v>-0.05332057700639584</v>
       </c>
       <c r="E67">
-        <v>0.01763887571572589</v>
+        <v>0.01762184730514199</v>
       </c>
       <c r="F67">
-        <v>0.02498922764306439</v>
+        <v>-0.04133512112016547</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.104108019981803</v>
+        <v>-0.116889980441925</v>
       </c>
       <c r="C68">
-        <v>0.2650629034955264</v>
+        <v>-0.02689294276906927</v>
       </c>
       <c r="D68">
-        <v>0.005713020929078603</v>
+        <v>0.261858730194345</v>
       </c>
       <c r="E68">
-        <v>-0.04022012192835436</v>
+        <v>-0.08747741344546894</v>
       </c>
       <c r="F68">
-        <v>-0.03451962640934966</v>
+        <v>0.03263285788367432</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03253915105059735</v>
+        <v>-0.03948054595336975</v>
       </c>
       <c r="C69">
-        <v>0.007327578467089574</v>
+        <v>-0.0009239202008651495</v>
       </c>
       <c r="D69">
-        <v>-0.03168608374283097</v>
+        <v>-0.009285132577659326</v>
       </c>
       <c r="E69">
-        <v>0.001317159354670545</v>
+        <v>0.02417057620457004</v>
       </c>
       <c r="F69">
-        <v>0.01712807873945584</v>
+        <v>-0.01143064171285775</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03353982829776078</v>
+        <v>-0.062689398269815</v>
       </c>
       <c r="C70">
-        <v>0.005818304330994881</v>
+        <v>0.02844953277749103</v>
       </c>
       <c r="D70">
-        <v>-0.04226834571508734</v>
+        <v>-0.02911410039514125</v>
       </c>
       <c r="E70">
-        <v>-0.03797049732270957</v>
+        <v>-0.05103908855691789</v>
       </c>
       <c r="F70">
-        <v>0.03969621708783239</v>
+        <v>-0.2788446747810882</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1215323025370924</v>
+        <v>-0.1362467076466833</v>
       </c>
       <c r="C71">
-        <v>0.2864075138138052</v>
+        <v>-0.03113597696080257</v>
       </c>
       <c r="D71">
-        <v>-0.009276203221954831</v>
+        <v>0.2773620591908788</v>
       </c>
       <c r="E71">
-        <v>-0.03201831362282519</v>
+        <v>-0.09605357858945197</v>
       </c>
       <c r="F71">
-        <v>0.01287131984955694</v>
+        <v>0.03877928405151158</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1447547920602549</v>
+        <v>-0.1409031284940518</v>
       </c>
       <c r="C72">
-        <v>-0.01097317400025862</v>
+        <v>-0.02460268959151773</v>
       </c>
       <c r="D72">
-        <v>-0.002082934131971081</v>
+        <v>-0.005061005273903277</v>
       </c>
       <c r="E72">
-        <v>0.01331595116379532</v>
+        <v>0.0452149890924432</v>
       </c>
       <c r="F72">
-        <v>-0.006343795167806831</v>
+        <v>0.02362063836741185</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2236048733251822</v>
+        <v>-0.2032907798570785</v>
       </c>
       <c r="C73">
-        <v>-0.02738231630363879</v>
+        <v>-0.01179186253762779</v>
       </c>
       <c r="D73">
-        <v>-0.06203059445633789</v>
+        <v>-0.01657112191426828</v>
       </c>
       <c r="E73">
-        <v>-0.0624295808245058</v>
+        <v>0.06248851494553411</v>
       </c>
       <c r="F73">
-        <v>0.1121757479589079</v>
+        <v>0.03332943592060444</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1194168224553189</v>
+        <v>-0.0948761331388345</v>
       </c>
       <c r="C74">
-        <v>-0.06025855044638593</v>
+        <v>-0.01218994485741528</v>
       </c>
       <c r="D74">
-        <v>-0.04123715680196414</v>
+        <v>-0.0202532049664753</v>
       </c>
       <c r="E74">
-        <v>0.008367109739062253</v>
+        <v>0.04836543919263886</v>
       </c>
       <c r="F74">
-        <v>0.02571209569824034</v>
+        <v>0.0481073669947348</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1179139398371753</v>
+        <v>-0.1297994676841447</v>
       </c>
       <c r="C75">
-        <v>-0.05661404920026201</v>
+        <v>-0.02641065952289887</v>
       </c>
       <c r="D75">
-        <v>-0.009299782888151732</v>
+        <v>-0.03432723330548865</v>
       </c>
       <c r="E75">
-        <v>0.009082404554855742</v>
+        <v>0.06056436694363687</v>
       </c>
       <c r="F75">
-        <v>0.0001108859522747008</v>
+        <v>0.01289948778663172</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02221828037249799</v>
+        <v>-0.00386724922963373</v>
       </c>
       <c r="C76">
-        <v>0.01530467322044808</v>
+        <v>-0.0009086562707704915</v>
       </c>
       <c r="D76">
-        <v>-0.01250073815135133</v>
+        <v>0.002599233219678461</v>
       </c>
       <c r="E76">
-        <v>-0.01169160582165292</v>
+        <v>0.0006374717505503364</v>
       </c>
       <c r="F76">
-        <v>0.01792833962705413</v>
+        <v>0.003933442987430984</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06650764553186295</v>
+        <v>-0.07783999823091728</v>
       </c>
       <c r="C77">
-        <v>-0.06110714780055502</v>
+        <v>-0.009061227294851138</v>
       </c>
       <c r="D77">
-        <v>0.01911480889206969</v>
+        <v>-0.1162664155450383</v>
       </c>
       <c r="E77">
-        <v>0.005143215476337126</v>
+        <v>0.03804076430330229</v>
       </c>
       <c r="F77">
-        <v>0.0591631587074617</v>
+        <v>0.03213065714441624</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.117623217972663</v>
+        <v>-0.1043431863946709</v>
       </c>
       <c r="C78">
-        <v>-0.03342465622901808</v>
+        <v>-0.04063867446901943</v>
       </c>
       <c r="D78">
-        <v>-0.08395912162425012</v>
+        <v>-0.1152678644358465</v>
       </c>
       <c r="E78">
-        <v>0.323483212296814</v>
+        <v>0.07942707411614591</v>
       </c>
       <c r="F78">
-        <v>-0.3093897064548371</v>
+        <v>0.07227695315371072</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1367162533572219</v>
+        <v>-0.1642519565789821</v>
       </c>
       <c r="C79">
-        <v>-0.05422369145277028</v>
+        <v>-0.02050101018287883</v>
       </c>
       <c r="D79">
-        <v>0.01229759631175441</v>
+        <v>-0.01986225429946153</v>
       </c>
       <c r="E79">
-        <v>-0.002215185131820225</v>
+        <v>0.04958250647672836</v>
       </c>
       <c r="F79">
-        <v>0.02714665008587941</v>
+        <v>0.00484150447360235</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07369707876372825</v>
+        <v>-0.08040871305200344</v>
       </c>
       <c r="C80">
-        <v>-0.06800818561753774</v>
+        <v>0.0009112505768696428</v>
       </c>
       <c r="D80">
-        <v>-0.06889770345351669</v>
+        <v>-0.05854474841121567</v>
       </c>
       <c r="E80">
-        <v>-0.03026246243803087</v>
+        <v>0.03671957057174138</v>
       </c>
       <c r="F80">
-        <v>0.01571975960535735</v>
+        <v>-0.01572403727158787</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1404107693055811</v>
+        <v>-0.1234968782001804</v>
       </c>
       <c r="C81">
-        <v>-0.0717160371778215</v>
+        <v>-0.03032700808894313</v>
       </c>
       <c r="D81">
-        <v>-0.01971417609648545</v>
+        <v>-0.01840831615105564</v>
       </c>
       <c r="E81">
-        <v>0.006864373667217322</v>
+        <v>0.05993918971992701</v>
       </c>
       <c r="F81">
-        <v>0.02307505632490433</v>
+        <v>0.00551545401707321</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1597077446097644</v>
+        <v>-0.1645506355429268</v>
       </c>
       <c r="C82">
-        <v>-0.05043807965818835</v>
+        <v>-0.02208167229602815</v>
       </c>
       <c r="D82">
-        <v>-0.02999337158637858</v>
+        <v>-0.01408600800224542</v>
       </c>
       <c r="E82">
-        <v>-0.02919476418346778</v>
+        <v>0.03587355702047528</v>
       </c>
       <c r="F82">
-        <v>0.04212176668885897</v>
+        <v>0.06677604531887321</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08754477481820754</v>
+        <v>-0.06261747798450115</v>
       </c>
       <c r="C83">
-        <v>-0.1186514764050194</v>
+        <v>-0.003169492685050296</v>
       </c>
       <c r="D83">
-        <v>0.003318645684346907</v>
+        <v>-0.04993946886104123</v>
       </c>
       <c r="E83">
-        <v>0.03063693274355518</v>
+        <v>0.004695280638129201</v>
       </c>
       <c r="F83">
-        <v>-0.01758924851188446</v>
+        <v>-0.04294533775976138</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06033461847697962</v>
+        <v>-0.05920624848929084</v>
       </c>
       <c r="C84">
-        <v>0.02066818777814999</v>
+        <v>-0.01083941753325006</v>
       </c>
       <c r="D84">
-        <v>0.01307688905121412</v>
+        <v>-0.06438424316759077</v>
       </c>
       <c r="E84">
-        <v>-0.06496576029611227</v>
+        <v>0.002946318017296124</v>
       </c>
       <c r="F84">
-        <v>0.05609189133007321</v>
+        <v>0.01074069034707997</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1248522378134379</v>
+        <v>-0.139170977354585</v>
       </c>
       <c r="C85">
-        <v>-0.04111484525340712</v>
+        <v>-0.02610501910524828</v>
       </c>
       <c r="D85">
-        <v>-0.01125468510642916</v>
+        <v>-0.01500211982891952</v>
       </c>
       <c r="E85">
-        <v>-0.001039767550991522</v>
+        <v>0.04155713364208965</v>
       </c>
       <c r="F85">
-        <v>0.04422031161514514</v>
+        <v>0.04551596700019629</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1632987382338991</v>
+        <v>-0.09502250728234829</v>
       </c>
       <c r="C86">
-        <v>-0.1028568864930775</v>
+        <v>0.006645673168275806</v>
       </c>
       <c r="D86">
-        <v>0.940790012920262</v>
+        <v>-0.02387233282242141</v>
       </c>
       <c r="E86">
-        <v>0.04523822343203358</v>
+        <v>0.149610788704965</v>
       </c>
       <c r="F86">
-        <v>-0.04371778878603282</v>
+        <v>-0.8671181750759973</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1250032410189018</v>
+        <v>-0.09621255275448164</v>
       </c>
       <c r="C87">
-        <v>-0.1186785674929379</v>
+        <v>-0.02214360132182274</v>
       </c>
       <c r="D87">
-        <v>-0.01218971449666625</v>
+        <v>-0.08868202429226775</v>
       </c>
       <c r="E87">
-        <v>-0.001828150773177651</v>
+        <v>-0.05367710304103434</v>
       </c>
       <c r="F87">
-        <v>0.04878030402517829</v>
+        <v>0.08133785145888009</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05293672878365172</v>
+        <v>-0.06084109328258103</v>
       </c>
       <c r="C88">
-        <v>-0.03485735339972405</v>
+        <v>-0.002755238763317713</v>
       </c>
       <c r="D88">
-        <v>-0.02953444295218583</v>
+        <v>-0.0542192952806125</v>
       </c>
       <c r="E88">
-        <v>-0.05670569712892198</v>
+        <v>0.0279679844321521</v>
       </c>
       <c r="F88">
-        <v>0.005943888872672409</v>
+        <v>0.007746979334740283</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1726655647362391</v>
+        <v>-0.1365671161105274</v>
       </c>
       <c r="C89">
-        <v>0.3625746403935611</v>
+        <v>-0.009480536664949352</v>
       </c>
       <c r="D89">
-        <v>-0.001250261728704446</v>
+        <v>0.2562981115374982</v>
       </c>
       <c r="E89">
-        <v>0.0395729535787601</v>
+        <v>-0.09227274212950111</v>
       </c>
       <c r="F89">
-        <v>0.01368917726699018</v>
+        <v>0.01756367299444061</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.132510883202775</v>
+        <v>-0.1473439601110345</v>
       </c>
       <c r="C90">
-        <v>0.2713043854413029</v>
+        <v>-0.02690614027210225</v>
       </c>
       <c r="D90">
-        <v>0.004496707825851281</v>
+        <v>0.2664216953836924</v>
       </c>
       <c r="E90">
-        <v>-0.05062344859839354</v>
+        <v>-0.1086172168479387</v>
       </c>
       <c r="F90">
-        <v>0.0158793301904721</v>
+        <v>0.02147758578851399</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08314301465204964</v>
+        <v>-0.1191846187039008</v>
       </c>
       <c r="C91">
-        <v>-0.04471777877041491</v>
+        <v>-0.01676936851484433</v>
       </c>
       <c r="D91">
-        <v>0.008809179087979088</v>
+        <v>0.007830544834586018</v>
       </c>
       <c r="E91">
-        <v>0.0006040603603519482</v>
+        <v>0.05720984800646069</v>
       </c>
       <c r="F91">
-        <v>0.03416657627096193</v>
+        <v>-0.01752331126533305</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1460872413793822</v>
+        <v>-0.1503923524994057</v>
       </c>
       <c r="C92">
-        <v>0.3208194661646165</v>
+        <v>-0.01869720660601228</v>
       </c>
       <c r="D92">
-        <v>0.002863492345609656</v>
+        <v>0.296215146157131</v>
       </c>
       <c r="E92">
-        <v>0.01366755231353452</v>
+        <v>-0.1049863674975759</v>
       </c>
       <c r="F92">
-        <v>-0.003837879909862082</v>
+        <v>0.01667581535025046</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1348375866674279</v>
+        <v>-0.1517721979579801</v>
       </c>
       <c r="C93">
-        <v>0.3187080870016806</v>
+        <v>-0.02302230740234736</v>
       </c>
       <c r="D93">
-        <v>0.02516928651754246</v>
+        <v>0.2669347132065998</v>
       </c>
       <c r="E93">
-        <v>-0.07810818035559493</v>
+        <v>-0.07558874982119669</v>
       </c>
       <c r="F93">
-        <v>0.02058839403566647</v>
+        <v>0.01627575344152316</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1397436145714921</v>
+        <v>-0.1331101765776454</v>
       </c>
       <c r="C94">
-        <v>-0.05883208017156584</v>
+        <v>-0.02364786089144018</v>
       </c>
       <c r="D94">
-        <v>-0.04877506206680411</v>
+        <v>-0.04580839174934652</v>
       </c>
       <c r="E94">
-        <v>0.02195719149967114</v>
+        <v>0.06086349665317661</v>
       </c>
       <c r="F94">
-        <v>0.02613496271445686</v>
+        <v>0.0312431141622265</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1106600425719496</v>
+        <v>-0.1250497415654305</v>
       </c>
       <c r="C95">
-        <v>-0.02635699591258511</v>
+        <v>-0.004840788819952798</v>
       </c>
       <c r="D95">
-        <v>-0.03209982177755504</v>
+        <v>-0.09064486244390017</v>
       </c>
       <c r="E95">
-        <v>0.03907670873897787</v>
+        <v>0.04413798505233486</v>
       </c>
       <c r="F95">
-        <v>0.04474462104807185</v>
+        <v>-0.01513446861708851</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01342601006077484</v>
+        <v>-0.09855044073965197</v>
       </c>
       <c r="C96">
-        <v>-0.001327825447242618</v>
+        <v>0.988837082999046</v>
       </c>
       <c r="D96">
-        <v>0.001359706245224126</v>
+        <v>0.0337092863461797</v>
       </c>
       <c r="E96">
-        <v>0.007734947312885549</v>
+        <v>0.05835202426080635</v>
       </c>
       <c r="F96">
-        <v>-0.002390074717616967</v>
+        <v>0.04648116458296147</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1776282219437018</v>
+        <v>-0.1885441829003121</v>
       </c>
       <c r="C97">
-        <v>-0.05849999010733736</v>
+        <v>0.01067690314494725</v>
       </c>
       <c r="D97">
-        <v>-0.06421524021276355</v>
+        <v>0.007189534620372919</v>
       </c>
       <c r="E97">
-        <v>0.1197226457671658</v>
+        <v>0.0184596050775255</v>
       </c>
       <c r="F97">
-        <v>-0.8470585458921238</v>
+        <v>-0.1639179358708331</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2453555817366708</v>
+        <v>-0.205087989140982</v>
       </c>
       <c r="C98">
-        <v>-0.01679916498776747</v>
+        <v>-0.007095589393913328</v>
       </c>
       <c r="D98">
-        <v>0.01327222100359195</v>
+        <v>-0.01065052209710208</v>
       </c>
       <c r="E98">
-        <v>0.08497461115939402</v>
+        <v>-0.09817045623883874</v>
       </c>
       <c r="F98">
-        <v>0.02032465268042018</v>
+        <v>-0.1100648366175457</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04174634178387044</v>
+        <v>-0.05581992647187121</v>
       </c>
       <c r="C99">
-        <v>0.01334976322210817</v>
+        <v>0.004064648082202496</v>
       </c>
       <c r="D99">
-        <v>-0.04003478544446899</v>
+        <v>-0.03625991750790092</v>
       </c>
       <c r="E99">
-        <v>0.02344714944098336</v>
+        <v>0.02690891380488436</v>
       </c>
       <c r="F99">
-        <v>0.01526697353857584</v>
+        <v>0.003187166670536513</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.02853651298248299</v>
+        <v>-0.1222367531891401</v>
       </c>
       <c r="C100">
-        <v>-0.07150611172339212</v>
+        <v>0.05183948873642635</v>
       </c>
       <c r="D100">
-        <v>-0.1265022123743034</v>
+        <v>-0.3482155520164787</v>
       </c>
       <c r="E100">
-        <v>-0.05698837921503242</v>
+        <v>-0.8940415159458195</v>
       </c>
       <c r="F100">
-        <v>-0.02299391709992752</v>
+        <v>-0.07110627224651653</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03349714664195851</v>
+        <v>-0.02711650185753392</v>
       </c>
       <c r="C101">
-        <v>-0.02012574208422669</v>
+        <v>-0.008699378016750262</v>
       </c>
       <c r="D101">
-        <v>-0.01056829716994807</v>
+        <v>-0.02952736258938605</v>
       </c>
       <c r="E101">
-        <v>-0.03777483122307142</v>
+        <v>0.01122977756581274</v>
       </c>
       <c r="F101">
-        <v>0.03696036793031546</v>
+        <v>-0.01520039936617048</v>
       </c>
     </row>
     <row r="102" spans="1:6">
